--- a/RASTA/risultati/NostriPOI/LDA/result_TD/topics.xlsx
+++ b/RASTA/risultati/NostriPOI/LDA/result_TD/topics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,52 +468,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>anno</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>primo</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abruzzo</t>
+          <t>centro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>castello</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>antico</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>palazzo</t>
+          <t>opera</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>progetto</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>museo</t>
+          <t>luogo</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>paese</t>
+          <t>esterno</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>valle</t>
+          <t>edificio</t>
         </is>
       </c>
     </row>
@@ -525,19 +525,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>antico</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>centro</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>antico</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>primo</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>castello</t>
@@ -550,178 +550,230 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>area</t>
+          <t>abruzzo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>paese</t>
+          <t>palazzo</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>facciata</t>
+          <t>alcuno</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>lungo</t>
+          <t>opera</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>stazione</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ferroviario</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>provincia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>noto</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>linea</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>anno</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>paese</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>abruzzo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>antico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>primo</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>centro</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>alcuno</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>portale</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>romano</t>
+          <t>ferrovia</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>borgo</t>
+          <t>servizio</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>abruzzo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>abruzzo</t>
+          <t>area</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>parco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>naturale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>anno</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>paese</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>riserva</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>valle</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>castello</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>valle</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>paese</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>palazzo</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>contenere</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>progetto</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>stazione</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>provincia</t>
+          <t>anno</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stazione</t>
+          <t>paese</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>abruzzo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>antico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>castello</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>romano</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>edificio</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>tre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>anno</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>abruzzo</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>paese</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>lago</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>opera</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>antico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>primo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>castello</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>storico</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>noto</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>paese</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>primo</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>castello</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>immagine</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>collegamento</t>
         </is>
       </c>
     </row>
